--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1586.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1586.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.020508726889844</v>
+        <v>0.4345088601112366</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>0.6414564847946167</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>1.336283683776855</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>5.880020618438721</v>
       </c>
       <c r="E1">
-        <v>0.9877451056468468</v>
+        <v>2.33031177520752</v>
       </c>
     </row>
   </sheetData>
